--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_3.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-218750.5042824883</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.338763057828693e-10</v>
+        <v>4350924.710954039</v>
       </c>
     </row>
     <row r="11">
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,31 +22570,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,34 +22646,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,31 +22807,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,34 +22883,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,28 +22965,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,31 +23044,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,31 +23281,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,34 +23357,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,28 +23439,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,31 +23518,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,34 +23594,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23676,28 +23676,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,31 +23755,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,34 +23831,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23913,28 +23913,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23992,31 +23992,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,34 +24068,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,28 +24150,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24229,31 +24229,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,34 +24305,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,28 +24387,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,31 +24466,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,34 +24542,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,28 +24624,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24703,31 +24703,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,34 +24779,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,28 +24861,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24940,31 +24940,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,34 +25016,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,28 +25098,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25177,31 +25177,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,34 +25253,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,28 +25335,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25414,31 +25414,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,34 +25490,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,28 +25572,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,31 +25651,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,34 +25727,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,28 +25809,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,31 +25888,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,34 +25964,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,28 +26046,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.157786755356938e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>16126.11082971696</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-15150.67397003477</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218750.5042824883</v>
+        <v>-104665.6458001497</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003477</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="C6" t="n">
-        <v>-48778.27397003477</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="D6" t="n">
-        <v>-48778.27397003477</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="E6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="F6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="G6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="H6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="I6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="J6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="K6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="L6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="M6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="N6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="O6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
       <c r="P6" t="n">
-        <v>-15150.67397003477</v>
+        <v>-1515.06739700348</v>
       </c>
     </row>
   </sheetData>
